--- a/数据库表.xlsx
+++ b/数据库表.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61">
   <si>
     <t>每年入住率表</t>
   </si>
@@ -96,7 +96,7 @@
     <t>是否删除</t>
   </si>
   <si>
-    <t>delete</t>
+    <t>isDelete</t>
   </si>
   <si>
     <t>预定折扣</t>
@@ -193,6 +193,12 @@
   </si>
   <si>
     <t>endTime</t>
+  </si>
+  <si>
+    <t>是否结账</t>
+  </si>
+  <si>
+    <t>isPaid</t>
   </si>
 </sst>
 </file>
@@ -200,13 +206,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd"/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -218,12 +224,28 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -283,50 +305,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -352,6 +330,27 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -375,6 +374,36 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -429,6 +458,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -478,48 +519,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -649,6 +648,30 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -664,15 +687,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -684,36 +698,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -738,6 +722,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -751,152 +750,152 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -915,37 +914,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
@@ -957,13 +935,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1314,10 +1295,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K26"/>
+  <dimension ref="A1:K27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F29" sqref="F29"/>
+      <selection activeCell="J20" sqref="J20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1351,14 +1332,14 @@
       <c r="B2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="5" t="s">
         <v>4</v>
       </c>
       <c r="D2" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="7"/>
-      <c r="G2" s="8" t="s">
+      <c r="E2" s="6"/>
+      <c r="G2" s="4" t="s">
         <v>6</v>
       </c>
       <c r="H2" t="s">
@@ -1370,23 +1351,23 @@
       <c r="J2" t="s">
         <v>5</v>
       </c>
-      <c r="K2" s="7"/>
+      <c r="K2" s="6"/>
     </row>
     <row r="3" ht="14.25" spans="1:11">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="11"/>
-      <c r="D3" s="12" t="s">
+      <c r="C3" s="8"/>
+      <c r="D3" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="13" t="s">
+      <c r="E3" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="G3" s="8" t="s">
+      <c r="G3" s="4" t="s">
         <v>12</v>
       </c>
       <c r="H3" t="s">
@@ -1395,10 +1376,10 @@
       <c r="J3" t="s">
         <v>5</v>
       </c>
-      <c r="K3" s="7"/>
+      <c r="K3" s="6"/>
     </row>
     <row r="4" ht="15" spans="7:11">
-      <c r="G4" s="8" t="s">
+      <c r="G4" s="4" t="s">
         <v>14</v>
       </c>
       <c r="H4" t="s">
@@ -1407,7 +1388,7 @@
       <c r="J4" t="s">
         <v>5</v>
       </c>
-      <c r="K4" s="7"/>
+      <c r="K4" s="6"/>
     </row>
     <row r="5" ht="14.25" spans="1:11">
       <c r="A5" s="1" t="s">
@@ -1417,7 +1398,7 @@
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
       <c r="E5" s="3"/>
-      <c r="G5" s="8" t="s">
+      <c r="G5" s="4" t="s">
         <v>17</v>
       </c>
       <c r="H5" t="s">
@@ -1429,10 +1410,10 @@
       <c r="J5" t="s">
         <v>5</v>
       </c>
-      <c r="K5" s="7"/>
-    </row>
-    <row r="6" ht="14.25" spans="1:11">
-      <c r="A6" s="8" t="s">
+      <c r="K5" s="6"/>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="A6" s="4" t="s">
         <v>20</v>
       </c>
       <c r="B6" t="s">
@@ -1444,23 +1425,23 @@
       <c r="D6" t="s">
         <v>5</v>
       </c>
-      <c r="E6" s="7"/>
-      <c r="G6" s="14" t="s">
+      <c r="E6" s="6"/>
+      <c r="G6" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H6" s="15" t="s">
+      <c r="H6" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="I6" s="15" t="s">
+      <c r="I6" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="J6" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="K6" s="22"/>
-    </row>
-    <row r="7" ht="14.25" spans="1:11">
-      <c r="A7" s="8" t="s">
+      <c r="J6" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="K6" s="6"/>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7" s="4" t="s">
         <v>22</v>
       </c>
       <c r="B7" t="s">
@@ -1469,21 +1450,21 @@
       <c r="D7" t="s">
         <v>24</v>
       </c>
-      <c r="E7" s="7"/>
-      <c r="G7" s="16" t="s">
+      <c r="E7" s="6"/>
+      <c r="G7" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="H7" s="12" t="s">
+      <c r="H7" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="I7" s="12"/>
-      <c r="J7" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="K7" s="13"/>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" s="8" t="s">
+      <c r="I7" s="8"/>
+      <c r="J7" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="K7" s="9"/>
+    </row>
+    <row r="8" ht="15" spans="1:5">
+      <c r="A8" s="4" t="s">
         <v>27</v>
       </c>
       <c r="B8" t="s">
@@ -1492,22 +1473,22 @@
       <c r="D8" t="s">
         <v>24</v>
       </c>
-      <c r="E8" s="17">
+      <c r="E8" s="10">
         <v>0.8</v>
       </c>
     </row>
     <row r="9" ht="15" spans="1:11">
-      <c r="A9" s="16" t="s">
+      <c r="A9" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="B9" s="12" t="s">
+      <c r="B9" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="C9" s="12"/>
-      <c r="D9" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="E9" s="13" t="s">
+      <c r="C9" s="8"/>
+      <c r="D9" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="E9" s="9" t="s">
         <v>31</v>
       </c>
       <c r="G9" s="1" t="s">
@@ -1519,7 +1500,7 @@
       <c r="K9" s="3"/>
     </row>
     <row r="10" ht="15" spans="7:11">
-      <c r="G10" s="8" t="s">
+      <c r="G10" s="4" t="s">
         <v>17</v>
       </c>
       <c r="H10" t="s">
@@ -1531,7 +1512,7 @@
       <c r="J10" t="s">
         <v>5</v>
       </c>
-      <c r="K10" s="7"/>
+      <c r="K10" s="6"/>
     </row>
     <row r="11" ht="14.25" spans="1:11">
       <c r="A11" s="1" t="s">
@@ -1541,7 +1522,7 @@
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
       <c r="E11" s="3"/>
-      <c r="G11" s="8" t="s">
+      <c r="G11" s="4" t="s">
         <v>34</v>
       </c>
       <c r="H11" t="s">
@@ -1550,10 +1531,10 @@
       <c r="J11" t="s">
         <v>10</v>
       </c>
-      <c r="K11" s="7"/>
+      <c r="K11" s="6"/>
     </row>
     <row r="12" spans="1:11">
-      <c r="A12" s="8" t="s">
+      <c r="A12" s="4" t="s">
         <v>36</v>
       </c>
       <c r="B12" t="s">
@@ -1565,8 +1546,8 @@
       <c r="D12" t="s">
         <v>5</v>
       </c>
-      <c r="E12" s="7"/>
-      <c r="G12" s="8" t="s">
+      <c r="E12" s="6"/>
+      <c r="G12" s="4" t="s">
         <v>38</v>
       </c>
       <c r="H12" t="s">
@@ -1575,10 +1556,10 @@
       <c r="J12" t="s">
         <v>5</v>
       </c>
-      <c r="K12" s="7"/>
+      <c r="K12" s="6"/>
     </row>
     <row r="13" spans="1:11">
-      <c r="A13" s="8" t="s">
+      <c r="A13" s="4" t="s">
         <v>20</v>
       </c>
       <c r="B13" t="s">
@@ -1590,8 +1571,8 @@
       <c r="D13" t="s">
         <v>5</v>
       </c>
-      <c r="E13" s="7"/>
-      <c r="G13" s="8" t="s">
+      <c r="E13" s="6"/>
+      <c r="G13" s="4" t="s">
         <v>40</v>
       </c>
       <c r="H13" t="s">
@@ -1600,10 +1581,10 @@
       <c r="J13" t="s">
         <v>5</v>
       </c>
-      <c r="K13" s="7"/>
+      <c r="K13" s="6"/>
     </row>
     <row r="14" spans="1:11">
-      <c r="A14" s="8" t="s">
+      <c r="A14" s="4" t="s">
         <v>42</v>
       </c>
       <c r="B14" t="s">
@@ -1612,21 +1593,21 @@
       <c r="D14" t="s">
         <v>24</v>
       </c>
-      <c r="E14" s="7"/>
-      <c r="G14" s="14" t="s">
+      <c r="E14" s="6"/>
+      <c r="G14" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="H14" s="15" t="s">
+      <c r="H14" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="I14" s="15"/>
-      <c r="J14" s="15" t="s">
+      <c r="I14" s="5"/>
+      <c r="J14" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="K14" s="22"/>
-    </row>
-    <row r="15" ht="14.25" spans="1:11">
-      <c r="A15" s="8" t="s">
+      <c r="K14" s="6"/>
+    </row>
+    <row r="15" spans="1:11">
+      <c r="A15" s="4" t="s">
         <v>46</v>
       </c>
       <c r="B15" t="s">
@@ -1635,21 +1616,21 @@
       <c r="D15" t="s">
         <v>24</v>
       </c>
-      <c r="E15" s="7"/>
-      <c r="G15" s="16" t="s">
+      <c r="E15" s="6"/>
+      <c r="G15" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="H15" s="12" t="s">
+      <c r="H15" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="I15" s="12"/>
-      <c r="J15" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="K15" s="13"/>
-    </row>
-    <row r="16" spans="1:5">
-      <c r="A16" s="8" t="s">
+      <c r="I15" s="8"/>
+      <c r="J15" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="K15" s="9"/>
+    </row>
+    <row r="16" ht="14.25" spans="1:5">
+      <c r="A16" s="4" t="s">
         <v>48</v>
       </c>
       <c r="B16" t="s">
@@ -1658,10 +1639,10 @@
       <c r="D16" t="s">
         <v>5</v>
       </c>
-      <c r="E16" s="7"/>
+      <c r="E16" s="6"/>
     </row>
     <row r="17" spans="1:5">
-      <c r="A17" s="8" t="s">
+      <c r="A17" s="4" t="s">
         <v>50</v>
       </c>
       <c r="B17" t="s">
@@ -1670,22 +1651,22 @@
       <c r="D17" t="s">
         <v>5</v>
       </c>
-      <c r="E17" s="7"/>
-    </row>
-    <row r="18" ht="14.25" spans="1:5">
-      <c r="A18" s="16" t="s">
+      <c r="E17" s="6"/>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="B18" s="12" t="s">
+      <c r="B18" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="C18" s="12"/>
-      <c r="D18" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="E18" s="13"/>
-    </row>
-    <row r="20" ht="14.25" spans="1:5">
+      <c r="C18" s="8"/>
+      <c r="D18" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="E18" s="9"/>
+    </row>
+    <row r="20" spans="1:5">
       <c r="A20" s="1" t="s">
         <v>52</v>
       </c>
@@ -1695,22 +1676,22 @@
       <c r="E20" s="3"/>
     </row>
     <row r="21" spans="1:5">
-      <c r="A21" s="18" t="s">
+      <c r="A21" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="B21" s="19" t="s">
+      <c r="B21" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="C21" s="19" t="s">
+      <c r="C21" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="D21" s="19" t="s">
-        <v>5</v>
-      </c>
-      <c r="E21" s="20"/>
+      <c r="D21" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="E21" s="10"/>
     </row>
     <row r="22" spans="1:5">
-      <c r="A22" s="8" t="s">
+      <c r="A22" s="4" t="s">
         <v>55</v>
       </c>
       <c r="B22" t="s">
@@ -1719,12 +1700,12 @@
       <c r="D22" t="s">
         <v>10</v>
       </c>
-      <c r="E22" s="21">
+      <c r="E22" s="13">
         <v>43101</v>
       </c>
     </row>
     <row r="23" spans="1:5">
-      <c r="A23" s="8" t="s">
+      <c r="A23" s="4" t="s">
         <v>57</v>
       </c>
       <c r="B23" t="s">
@@ -1733,12 +1714,12 @@
       <c r="D23" t="s">
         <v>10</v>
       </c>
-      <c r="E23" s="21">
+      <c r="E23" s="13">
         <v>43103</v>
       </c>
     </row>
     <row r="24" spans="1:5">
-      <c r="A24" s="8" t="s">
+      <c r="A24" s="4" t="s">
         <v>17</v>
       </c>
       <c r="B24" t="s">
@@ -1750,35 +1731,48 @@
       <c r="D24" t="s">
         <v>5</v>
       </c>
-      <c r="E24" s="7"/>
+      <c r="E24" s="6"/>
     </row>
     <row r="25" spans="1:5">
-      <c r="A25" s="14" t="s">
+      <c r="A25" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B25" s="15" t="s">
+      <c r="B25" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="C25" s="15" t="s">
+      <c r="C25" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="D25" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="E25" s="22"/>
-    </row>
-    <row r="26" ht="14.25" spans="1:5">
-      <c r="A26" s="16" t="s">
+      <c r="D25" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E25" s="6"/>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="B26" s="12" t="s">
+      <c r="B26" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="C26" s="12"/>
-      <c r="D26" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="E26" s="13"/>
+      <c r="C26" s="5"/>
+      <c r="D26" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E26" s="6"/>
+    </row>
+    <row r="27" ht="14.25" spans="1:5">
+      <c r="A27" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="B27" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="C27" s="15"/>
+      <c r="D27" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="E27" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="6">

--- a/数据库表.xlsx
+++ b/数据库表.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66">
   <si>
     <t>每年入住率表</t>
   </si>
@@ -168,10 +168,25 @@
     <t>status</t>
   </si>
   <si>
+    <t>客户昵称</t>
+  </si>
+  <si>
+    <t>nickname</t>
+  </si>
+  <si>
+    <t>不可重复</t>
+  </si>
+  <si>
     <t>是否可用</t>
   </si>
   <si>
     <t>useful</t>
+  </si>
+  <si>
+    <t>客户密码</t>
+  </si>
+  <si>
+    <t>userPwd</t>
   </si>
   <si>
     <t>入住登记信息表</t>
@@ -206,11 +221,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd"/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd"/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -222,7 +237,68 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -237,7 +313,7 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -245,7 +321,29 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -259,14 +357,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -276,81 +366,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -374,49 +389,133 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -452,78 +551,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -536,19 +563,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -648,17 +663,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -672,16 +683,16 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
+      <right style="double">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
+      <top style="double">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
+      <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -698,26 +709,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -740,6 +731,30 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
@@ -753,149 +768,149 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="28" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -936,15 +951,6 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1295,10 +1301,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K27"/>
+  <dimension ref="A1:K28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J20" sqref="J20"/>
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1440,7 +1446,7 @@
       </c>
       <c r="K6" s="6"/>
     </row>
-    <row r="7" spans="1:11">
+    <row r="7" ht="14.25" spans="1:11">
       <c r="A7" s="4" t="s">
         <v>22</v>
       </c>
@@ -1606,7 +1612,7 @@
       </c>
       <c r="K14" s="6"/>
     </row>
-    <row r="15" spans="1:11">
+    <row r="15" ht="14.25" spans="1:11">
       <c r="A15" s="4" t="s">
         <v>46</v>
       </c>
@@ -1629,7 +1635,7 @@
       </c>
       <c r="K15" s="9"/>
     </row>
-    <row r="16" ht="14.25" spans="1:5">
+    <row r="16" ht="14.25" spans="1:11">
       <c r="A16" s="4" t="s">
         <v>48</v>
       </c>
@@ -1640,20 +1646,35 @@
         <v>5</v>
       </c>
       <c r="E16" s="6"/>
-    </row>
-    <row r="17" spans="1:5">
+      <c r="G16" t="s">
+        <v>50</v>
+      </c>
+      <c r="H16" t="s">
+        <v>51</v>
+      </c>
+      <c r="K16" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="4" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B17" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="D17" t="s">
         <v>5</v>
       </c>
       <c r="E17" s="6"/>
-    </row>
-    <row r="18" spans="1:5">
+      <c r="G17" t="s">
+        <v>55</v>
+      </c>
+      <c r="H17" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="18" ht="14.25" spans="1:5">
       <c r="A18" s="7" t="s">
         <v>25</v>
       </c>
@@ -1666,9 +1687,10 @@
       </c>
       <c r="E18" s="9"/>
     </row>
-    <row r="20" spans="1:5">
+    <row r="19" ht="15"/>
+    <row r="20" ht="14.25" spans="1:5">
       <c r="A20" s="1" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
@@ -1677,10 +1699,10 @@
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="11" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="B21" s="12" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="C21" s="12" t="s">
         <v>4</v>
@@ -1692,10 +1714,10 @@
     </row>
     <row r="22" spans="1:5">
       <c r="A22" s="4" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="B22" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="D22" t="s">
         <v>10</v>
@@ -1706,10 +1728,10 @@
     </row>
     <row r="23" spans="1:5">
       <c r="A23" s="4" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="B23" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="D23" t="s">
         <v>10</v>
@@ -1762,18 +1784,19 @@
       <c r="E26" s="6"/>
     </row>
     <row r="27" ht="14.25" spans="1:5">
-      <c r="A27" s="14" t="s">
-        <v>59</v>
-      </c>
-      <c r="B27" s="15" t="s">
-        <v>60</v>
-      </c>
-      <c r="C27" s="15"/>
-      <c r="D27" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="E27" s="16"/>
-    </row>
+      <c r="A27" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="B27" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="C27" s="8"/>
+      <c r="D27" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="E27" s="9"/>
+    </row>
+    <row r="28" ht="14.25"/>
   </sheetData>
   <mergeCells count="6">
     <mergeCell ref="A1:E1"/>
